--- a/biology/Zoologie/Ceratomegilla/Ceratomegilla.xlsx
+++ b/biology/Zoologie/Ceratomegilla/Ceratomegilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratomegilla est un genre (ou sous-genre selon les classifications) d'insectes coléoptères de la famille des coccinelles.
 </t>
@@ -511,20 +523,22 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 mai 2024)[1] où Ceratomegilla Crotch, 1873 est un sous-genre du genre Hippodamia :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 mai 2024) où Ceratomegilla Crotch, 1873 est un sous-genre du genre Hippodamia :
 Hippodamia notata (Laicharting, 1781)
 Hippodamia schneideri (Weise, 1878)
 Hippodamia ulkei (Crotch, 1873)
 Hippodamia undecimnotata (Schneider, 1792)
-Selon Fauna Europaea                                      (27 mars 2014)[2] :
+Selon Fauna Europaea                                      (27 mars 2014) :
 Ceratomegilla (Adaliopsis) alpina
 Ceratomegilla (Ceratomegilla) notata
 Ceratomegilla (Ceratomegilla) rufocinta
 Ceratomegilla (Ceratomegilla) schneideri
 Ceratomegilla (Ceratomegilla) undecimnota
-Selon NCBI  (21 mai 2024)[3] :
+Selon NCBI  (21 mai 2024) :
 Ceratomegilla ulkei Crotch, 1873</t>
         </is>
       </c>
